--- a/flash-api/src/main/resources/templates/water_template.xlsx
+++ b/flash-api/src/main/resources/templates/water_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,171 +32,174 @@
     <t>住址</t>
   </si>
   <si>
+    <t>{address}</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>项目及类别</t>
+  </si>
+  <si>
+    <t>水表动态</t>
+  </si>
+  <si>
+    <t>用水量(立方米)</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>起码</t>
+  </si>
+  <si>
+    <t>止码</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>计量水费</t>
+  </si>
+  <si>
+    <t>{firstNumber}</t>
+  </si>
+  <si>
+    <t>{lastNumber}</t>
+  </si>
+  <si>
+    <t>{waterCount}</t>
+  </si>
+  <si>
+    <t>{price}</t>
+  </si>
+  <si>
+    <t>{meterage.wan}</t>
+  </si>
+  <si>
+    <t>{meterage.qian}</t>
+  </si>
+  <si>
+    <t>{meterage.bai}</t>
+  </si>
+  <si>
+    <t>{meterage.shi}</t>
+  </si>
+  <si>
+    <t>{meterage.yuan}</t>
+  </si>
+  <si>
+    <t>{meterage.jiao}</t>
+  </si>
+  <si>
+    <t>{meterage.fen}</t>
+  </si>
+  <si>
+    <t>容量水费</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{capacity.wan}</t>
+  </si>
+  <si>
+    <t>{capacity.qian}</t>
+  </si>
+  <si>
+    <t>{capacity.bai}</t>
+  </si>
+  <si>
+    <t>{capacity.shi}</t>
+  </si>
+  <si>
+    <t>{capacity.yuan}</t>
+  </si>
+  <si>
+    <t>{capacity.jiao}</t>
+  </si>
+  <si>
+    <t>{capacity.fen}</t>
+  </si>
+  <si>
+    <t>合计大写</t>
+  </si>
+  <si>
+    <t>{capitalization}</t>
+  </si>
+  <si>
+    <t>{cost.wan}</t>
+  </si>
+  <si>
+    <t>{cost.qian}</t>
+  </si>
+  <si>
+    <t>{cost.bai}</t>
+  </si>
+  <si>
+    <t>{cost.shi}</t>
+  </si>
+  <si>
+    <t>{cost.yuan}</t>
+  </si>
+  <si>
+    <t>{cost.jiao}</t>
+  </si>
+  <si>
+    <t>{cost.fen}</t>
+  </si>
+  <si>
+    <t>收款：</t>
+  </si>
+  <si>
+    <t>{loginName}</t>
+  </si>
+  <si>
+    <t>打印时间：</t>
+  </si>
+  <si>
+    <t>{ymd_hms}</t>
+  </si>
+  <si>
+    <t>开票：</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <t>谷城县水利局紫金农水站水费收据</t>
+  </si>
+  <si>
+    <t>2022年4月</t>
+  </si>
+  <si>
+    <t>蔡波</t>
+  </si>
+  <si>
     <t>居委会3组</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>项目及类别</t>
-  </si>
-  <si>
-    <t>水表动态</t>
-  </si>
-  <si>
-    <t>用水量(立方米)</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>起码</t>
-  </si>
-  <si>
-    <t>止码</t>
-  </si>
-  <si>
-    <t>万</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>角</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>计量水费</t>
-  </si>
-  <si>
-    <t>{firstNumber}</t>
-  </si>
-  <si>
-    <t>{lastNumber}</t>
-  </si>
-  <si>
-    <t>{waterCount}</t>
-  </si>
-  <si>
-    <t>{price}</t>
-  </si>
-  <si>
-    <t>{meterage.wan}</t>
-  </si>
-  <si>
-    <t>{meterage.qian}</t>
-  </si>
-  <si>
-    <t>{meterage.bai}</t>
-  </si>
-  <si>
-    <t>{meterage.shi}</t>
-  </si>
-  <si>
-    <t>{meterage.yuan}</t>
-  </si>
-  <si>
-    <t>{meterage.jiao}</t>
-  </si>
-  <si>
-    <t>{meterage.fen}</t>
-  </si>
-  <si>
-    <t>容量水费</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{capacity.wan}</t>
-  </si>
-  <si>
-    <t>{capacity.qian}</t>
-  </si>
-  <si>
-    <t>{capacity.bai}</t>
-  </si>
-  <si>
-    <t>{capacity.shi}</t>
-  </si>
-  <si>
-    <t>{capacity.yuan}</t>
-  </si>
-  <si>
-    <t>{capacity.jiao}</t>
-  </si>
-  <si>
-    <t>{capacity.fen}</t>
-  </si>
-  <si>
-    <t>合计大写</t>
-  </si>
-  <si>
-    <t>{capitalization}</t>
-  </si>
-  <si>
-    <t>{cost.wan}</t>
-  </si>
-  <si>
-    <t>{cost.qian}</t>
-  </si>
-  <si>
-    <t>{cost.bai}</t>
-  </si>
-  <si>
-    <t>{cost.shi}</t>
-  </si>
-  <si>
-    <t>{cost.yuan}</t>
-  </si>
-  <si>
-    <t>{cost.jiao}</t>
-  </si>
-  <si>
-    <t>{cost.fen}</t>
-  </si>
-  <si>
-    <t>收款：</t>
-  </si>
-  <si>
-    <t>{loginName}</t>
-  </si>
-  <si>
-    <t>打印时间：</t>
-  </si>
-  <si>
-    <t>{ymd_hms}</t>
-  </si>
-  <si>
-    <t>开票：</t>
-  </si>
-  <si>
-    <t>{id}</t>
-  </si>
-  <si>
-    <t>谷城县水利局紫金农水站水费收据</t>
-  </si>
-  <si>
-    <t>2022年4月</t>
-  </si>
-  <si>
-    <t>蔡波</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -240,9 +243,6 @@
   </si>
   <si>
     <t>{year}年{month}月</t>
-  </si>
-  <si>
-    <t>{address}</t>
   </si>
 </sst>
 </file>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -317,27 +317,6 @@
       <sz val="9"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -356,13 +335,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,11 +371,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,55 +425,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,14 +456,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,187 +479,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,12 +786,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -808,21 +821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,8 +843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,16 +858,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -877,157 +875,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1876,37 +1876,37 @@
         <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="25"/>
     </row>
@@ -1927,25 +1927,25 @@
         <v>34</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="25"/>
     </row>
@@ -1954,41 +1954,41 @@
         <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="6"/>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="19" t="s">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:13">
@@ -2026,7 +2026,7 @@
     </row>
     <row r="15" ht="15.75" spans="1:13">
       <c r="A15" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2239,11 +2239,11 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="19" t="s">
